--- a/biology/Médecine/Pierre_Karli/Pierre_Karli.xlsx
+++ b/biology/Médecine/Pierre_Karli/Pierre_Karli.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pierre Karli, né le 8 février 1926 à Strasbourg, et mort à Oberhausbergen[1] le 21 mai 2016[2], est un médecin, neurobiologiste et professeur d'université français. Il est élu à l’Académie des Sciences  en 1979.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pierre Karli, né le 8 février 1926 à Strasbourg, et mort à Oberhausbergen le 21 mai 2016, est un médecin, neurobiologiste et professeur d'université français. Il est élu à l’Académie des Sciences  en 1979.
 </t>
         </is>
       </c>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pierre Karli est incorporé de force lors de l’annexion de l’Alsace[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pierre Karli est incorporé de force lors de l’annexion de l’Alsace.
 Il est professeur à l'université de Strasbourg, dont il est le président de 1975 à 1978, et devient professeur émérite en 1987. Il est directeur du laboratoire de neurophysiologie du CNRS. 
-Il fonde l’Institut pour la promotion du lien social en 2000, il est membre de l’Academia Europaea, du Comité national français d'histoire et de philosophie des sciences[4], et de l’Institut d’Alsace.
-Il est élu à l’Académie des sciences le 18 juin 1979, dans la section biologie humaine et sciences médicales[5].
-Il témoigne en 2014 dans le documentaire sur les 86 juifs tués pour des expérimentations par le médecin nazi August Hirt, alors directeur de l'Institut d'anatomie[6],
+Il fonde l’Institut pour la promotion du lien social en 2000, il est membre de l’Academia Europaea, du Comité national français d'histoire et de philosophie des sciences, et de l’Institut d’Alsace.
+Il est élu à l’Académie des sciences le 18 juin 1979, dans la section biologie humaine et sciences médicales.
+Il témoigne en 2014 dans le documentaire sur les 86 juifs tués pour des expérimentations par le médecin nazi August Hirt, alors directeur de l'Institut d'anatomie,
 Il est docteur honoris causa de l’université de Lausanne.
 </t>
         </is>
@@ -547,9 +561,11 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Neurobiologie des comportements agressifs, Presses universitaires de France, collection Nodules, 1982, 90 p[7],
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Neurobiologie des comportements agressifs, Presses universitaires de France, collection Nodules, 1982, 90 p,
 L’Homme agressif, Paris, Odile Jacob, 1987  (ISBN 978-2020095532),
 Le cerveau et la liberté, Paris, Odile Jacob, 1995  (ISBN 978-2738103390),
 Les Racines de la violence : réflexions d'un neurobiologiste, Paris, Odile Jacob, 2002.
@@ -581,7 +597,9 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Prix de la Tolérance Marcel-Rudloff (2004)
 Prix La Caze en physiologie de l’Académie des Sciences (1975),
